--- a/CUAHSI_documentation/Standard_Formatting_Template.xlsx
+++ b/CUAHSI_documentation/Standard_Formatting_Template.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lbrazil\Documents\Publishing Process\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whiteatl\Documents\Clim-HydroDB-2.0\CUAHSI_documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11235" windowHeight="4350" tabRatio="751" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11235" windowHeight="4350" tabRatio="751"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="30" r:id="rId1"/>
@@ -21,12 +21,12 @@
     <sheet name="QualityControlLevels" sheetId="14" r:id="rId7"/>
     <sheet name="DataValues" sheetId="4" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="133">
   <si>
     <t>Data Type</t>
   </si>
@@ -43,9 +43,6 @@
     <t>DataType</t>
   </si>
   <si>
-    <t>Integer</t>
-  </si>
-  <si>
     <t>DataValue</t>
   </si>
   <si>
@@ -154,12 +151,6 @@
     <t>NULL</t>
   </si>
   <si>
-    <t>0 (No method specified)</t>
-  </si>
-  <si>
-    <t>-9999 (Unknown)</t>
-  </si>
-  <si>
     <t>Unknown</t>
   </si>
   <si>
@@ -182,9 +173,6 @@
   </si>
   <si>
     <t>Color Key</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>2. Delete first column and 2nd, 3rd, 4th, and 5th rows so that only column headers and your metadata and data values remain</t>
@@ -308,32 +296,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">The Sources table lists the original sources of the data, providing information sufficient to retrieve and reconstruct the data value from the original data files if necessary. This table is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mandatory</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">The QualityControlLevels table contains the quality control levels that are used for versioning data within the database. This table is </t>
     </r>
     <r>
@@ -397,9 +359,6 @@
     <t>Text</t>
   </si>
   <si>
-    <t>Code used by organization that collects the data to identify the site.</t>
-  </si>
-  <si>
     <t>Full name of the sampling site.</t>
   </si>
   <si>
@@ -415,9 +374,6 @@
     <t>Full text description of the source of the data.</t>
   </si>
   <si>
-    <t>Link that can be pointed at the original data file and/or associated metadata stored in the digital library or URL of data source.</t>
-  </si>
-  <si>
     <t>Name of the contact person for the data source.</t>
   </si>
   <si>
@@ -427,31 +383,13 @@
     <t>Code used to identify the level of quality control to which data values have been subjected.</t>
   </si>
   <si>
-    <t>Definition of Quality Control Level.</t>
-  </si>
-  <si>
     <t>Explanation of Quality Control Level.</t>
   </si>
   <si>
-    <t>The numeric value of the observation. For Categorical variables, a number is stored here. The Variables table has DataType as Categorical and the Categories table maps from the DataValue onto Category Description.</t>
-  </si>
-  <si>
-    <t>Local date and time at which the data value was observed. Represented in an implementation specific format.</t>
-  </si>
-  <si>
-    <t>Offset in hours from UTC time of the corresponding LocalDateTime value.</t>
-  </si>
-  <si>
-    <t>Universal UTC date and time at which the data value was observed. Represented in an implementation specific format.</t>
-  </si>
-  <si>
     <t>Code which identifies the level of quality control that the value has been subjected to. This references the QualityControlLevels table.</t>
   </si>
   <si>
     <t>There is no default value.</t>
-  </si>
-  <si>
-    <t>Code used by the organization that collects the data to identify the variable.</t>
   </si>
   <si>
     <t>How to use this guide:</t>
@@ -489,9 +427,6 @@
     <t>Code used to identify the organization that created the data.</t>
   </si>
   <si>
-    <t>4. Upload each CSV file using CUAHSI's Cloud HydroServer</t>
-  </si>
-  <si>
     <t>Code used by the organization that collects the data to identify the Method, which is defined in the Methods table.</t>
   </si>
   <si>
@@ -501,36 +436,18 @@
     <t>Text (255 characters or less)</t>
   </si>
   <si>
-    <t xml:space="preserve">For more information about the Observational Data Model: http://dx.doi.org/10.1029/2007WR006392 </t>
-  </si>
-  <si>
     <t>SampleMedium</t>
   </si>
   <si>
     <t>ValueType</t>
   </si>
   <si>
-    <t>Allows only characters in the range of A-Z (case sensitive), 0-9, ".", "-", and "_"</t>
-  </si>
-  <si>
     <t>User or organization-defined code that collects the data to identify the method used for measurement.</t>
   </si>
   <si>
     <t>User or organization-defined code that collects the data to identify the site.</t>
   </si>
   <si>
-    <t>Full text name of the spatial reference system of the latitude and longitude coordinates in the SpatialReferences table. This should be from the SpatialReferences controlled vocabulary: http://his.cuahsi.org/mastercvreg/edit_cv11.aspx?tbl=SpatialReferences&amp;id=869578136</t>
-  </si>
-  <si>
-    <t>The type of site. This should be from the SiteType controlled vocabulary: http://his.cuahsi.org/mastercvreg/edit_cv11.aspx?tbl=SiteTypeCV&amp;id=853578079</t>
-  </si>
-  <si>
-    <t>The recorded value over the time interval being sampled. Example: average. Choose from the DataType controlled vocabulary: http://his.cuahsi.org/mastercvreg/edit_cv11.aspx?tbl=DataTypeCV&amp;id=789577851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The medium in which the sample or observation was taken or made. Example: Surface water. Choose from the SampleMedium controlled vocabulary: http://his.cuahsi.org/mastercvreg/edit_cv11.aspx?tbl=SampleMediumCV&amp;id=821577965. </t>
-  </si>
-  <si>
     <t>Citation</t>
   </si>
   <si>
@@ -549,49 +466,123 @@
     <t>0 (Assumes instantaneous samples where no other information is available)</t>
   </si>
   <si>
-    <t>"hours"</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
-    <t xml:space="preserve">Numerical value that indicates the time support (or temporal footprint) of the data values. 0 is used to indicate data values that are instantaneous. Other values indicate the time over which the data values are implicitly or explicitly averaged or aggregated. The Timesupport goes along with TimeUnitsName if IsRegularlyMeasured = TRUE. </t>
-  </si>
-  <si>
     <t>User or organization-defined code to describe the variable. If for example, you are measuring streamflow, you may name this SF.</t>
   </si>
   <si>
-    <t>Text value indicating what type of data value is being recorded. Example: Field Observation. Choose from the ValueType controlled vocabulary: http://his.cuahsi.org/mastercvreg/edit_cv11.aspx?tbl=ValueTypeCV&amp;id=1141579105</t>
-  </si>
-  <si>
-    <t>The name of units of the data values associated with a variable. Example: degree. Choose from the Units controlled vocabulary: http://his.cuahsi.org/mastercvreg/edit_cv11.aspx?tbl=Units&amp;id=1125579048</t>
-  </si>
-  <si>
-    <t>Full text name of the variable that was measured, observed, modeled, etc. Example: Streamflow. Choose from the Variable Name controlled vocabulary: http://his.cuahsi.org/mastercvreg/edit_cv11.aspx?tbl=VariableNameCV&amp;id=1157579162</t>
-  </si>
-  <si>
     <t>Value indicates whether the data values are from a regularly sampled time series. Choose TRUE or FALSE.</t>
   </si>
   <si>
     <t>GeneralCategory</t>
   </si>
   <si>
-    <t>The name of units of the time support. If TimeSupport is 0, indicating an instantaneous observation, a unit needs to still be given for completeness, although it is somewhat arbitrary. Choose from the Units controlled vocabulary: http://his.cuahsi.org/mastercvreg/edit_cv11.aspx?tbl=Units&amp;id=1125579048</t>
-  </si>
-  <si>
-    <t>General category of data. Example: Hydrology. Choose from the GeneralCategory controlled vocabulary: http://his.cuahsi.org/mastercvreg/edit_cv11.aspx?tbl=GeneralCategoryCV&amp;id=805577908</t>
-  </si>
-  <si>
     <t>NoDataValue</t>
   </si>
   <si>
-    <t>Numeric value used to encode no data values for this variable. When formatting the Data Values table, use this number to indicate no data value was measured.</t>
-  </si>
-  <si>
     <t>Comments related to the site.</t>
   </si>
   <si>
     <t>IsRegular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For more information about the Observations Data Model: http://dx.doi.org/10.1029/2007WR006392 </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Sources table lists the original sources of the data, providing information on who collected the data. This table is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mandatory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>4. Make an EML metadata file and upload the data package to EDI.  If loading data into CUAHSI, upload each CSV file using CUAHSI's Cloud HydroServer</t>
+  </si>
+  <si>
+    <t>The name of units of the data values associated with a variable. Example: degree. Choose a UnitsName from the Units controlled vocabulary: http://his.cuahsi.org/mastercvreg/edit_cv11.aspx?tbl=Units</t>
+  </si>
+  <si>
+    <t>Full text name of the variable that was measured, observed, modeled, etc. Example: Streamflow. Choose a Term from the Variable Name controlled vocabulary: http://his.cuahsi.org/mastercvreg/edit_cv11.aspx?tbl=VariableNameCV</t>
+  </si>
+  <si>
+    <t>The medium in which the sample or observation was taken or made. Example: Surface water. Choose a Term from the SampleMedium controlled vocabulary: http://his.cuahsi.org/mastercvreg/edit_cv11.aspx?tbl=SampleMediumCV</t>
+  </si>
+  <si>
+    <t>Indicates how the value applies over a time interval. Example: Average. Choose a Term from the DataType controlled vocabulary: http://his.cuahsi.org/mastercvreg/edit_cv11.aspx?tbl=DataTypeCV</t>
+  </si>
+  <si>
+    <t>The name of units of the time support. If TimeSupport is 0, indicating an instantaneous observation, a unit needs to still be given for completeness, although it is arbitrary. Choose a UnitsName from the Units controlled vocabulary: http://his.cuahsi.org/mastercvreg/edit_cv11.aspx?tbl=Units</t>
+  </si>
+  <si>
+    <t>Indicates how the data value was generated. Example: Field Observation. Choose a Term from the ValueType controlled vocabulary: http://his.cuahsi.org/mastercvreg/edit_cv11.aspx?tbl=ValueTypeCV</t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numerical value that indicates the time support (or temporal footprint) of the data values. 0 is used to indicate data values that are instantaneous. Other values indicate the time over which the data values are implicitly or explicitly averaged or aggregated. The Timesupport goes along with TimeUnitsName if IsRegular = TRUE. </t>
+  </si>
+  <si>
+    <t>General category of data. Example: Hydrology. Choose a Term from the GeneralCategory controlled vocabulary: http://his.cuahsi.org/mastercvreg/edit_cv11.aspx?tbl=GeneralCategoryCV</t>
+  </si>
+  <si>
+    <t>Numeric value used to encode when a data value is not available for this variable. When formatting the Data Values table, use this number to indicate NoData.</t>
+  </si>
+  <si>
+    <t>The spatial reference system of the latitude and longitude coordinates. Choose an SRSName where IsGeographic=True from the SpatialReferences controlled vocabulary: http://his.cuahsi.org/mastercvreg/edit_cv11.aspx?tbl=SpatialReferences</t>
+  </si>
+  <si>
+    <t>Controlled Vocabulary, must be a geographic coordinate system</t>
+  </si>
+  <si>
+    <t>The type of site. Choose a Term  from the SiteType controlled vocabulary: http://his.cuahsi.org/mastercvreg/edit_cv11.aspx?tbl=SiteTypeCV</t>
+  </si>
+  <si>
+    <t>Link to the original data file of the data source.</t>
+  </si>
+  <si>
+    <t>Definition of Quality Control Level. Examples: Raw Data, Quality Controlled Data. This is not to be confused with data qualifiers.</t>
+  </si>
+  <si>
+    <t>The numeric value of the observation. For Categorical data, e.g., "young", "old", please use the advanced template instead of this one.</t>
+  </si>
+  <si>
+    <t>Local date and time at which the data value was observed. We recommend using ISO 8601 representations, e.g., 2021-07-28T12:28</t>
+  </si>
+  <si>
+    <t>Offset in hours from UTC time of the corresponding LocalDateTime value. Example: -5</t>
+  </si>
+  <si>
+    <t>UTC date and time at which the data value was observed. We recommend using ISO 8601 representations, e.g., 2021-07-28T19:28</t>
+  </si>
+  <si>
+    <t>Mandatory; max precision is one millisecond</t>
+  </si>
+  <si>
+    <t>Code used by organization that collects the data to identify the site. This references the Sites table.</t>
+  </si>
+  <si>
+    <t>Code used by the organization that collects the data to identify the variable. This references the Variables table.</t>
   </si>
 </sst>
 </file>
@@ -1209,7 +1200,7 @@
     <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1238,7 +1229,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1433,23 +1423,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1485,23 +1458,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1680,8 +1636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1692,63 +1648,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
+      <c r="A1" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
+      <c r="B3" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B5" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="26"/>
+      <c r="B5" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="25"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>101</v>
+      <c r="B9" s="12" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1761,22 +1717,22 @@
       <c r="K15" s="7"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
+      <c r="B16" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1790,7 +1746,7 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1803,10 +1759,10 @@
       <c r="K18" s="7"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="27"/>
+      <c r="B19" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="26"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -1817,57 +1773,57 @@
       <c r="K19" s="7"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
+      <c r="B20" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
+      <c r="B21" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
       <c r="K21" s="7"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="19"/>
+      <c r="B24" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="18"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="20"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="22"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1889,9 +1845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P15"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1899,284 +1853,284 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="29"/>
+    </row>
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="34"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="32"/>
+    </row>
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="35"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+    </row>
+    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="35"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+    </row>
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="35"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+    </row>
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="35"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+    </row>
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="30"/>
-    </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="33"/>
-    </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="34" t="s">
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="35"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+    </row>
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-    </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-    </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-    </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-    </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-    </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2204,7 +2158,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2222,37 +2176,37 @@
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
@@ -2260,37 +2214,37 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
@@ -2298,37 +2252,37 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="251.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2336,72 +2290,72 @@
         <v>1</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="E4" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>114</v>
-      </c>
       <c r="G4" s="15" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H5" s="12" t="b">
         <v>0</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L5" s="12">
         <v>-9999</v>
@@ -2445,8 +2399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2462,13 +2416,13 @@
         <v>3</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -2476,13 +2430,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -2490,13 +2444,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="90" x14ac:dyDescent="0.3">
@@ -2504,27 +2458,24 @@
         <v>1</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2537,9 +2488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2558,25 +2507,25 @@
         <v>3</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="D1" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -2584,25 +2533,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -2610,68 +2559,74 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>18</v>
+        <v>35</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="12" customFormat="1" ht="210" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="12" customFormat="1" ht="195" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2683,9 +2638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2703,25 +2656,25 @@
         <v>3</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="E1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="H1" s="4" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -2729,25 +2682,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -2755,77 +2708,77 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="12" customFormat="1" ht="150" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="12" customFormat="1" ht="105" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
         <v>41</v>
       </c>
-      <c r="F5" t="s">
-        <v>44</v>
-      </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2838,9 +2791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2854,13 +2805,13 @@
         <v>3</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -2868,13 +2819,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -2882,13 +2833,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -2896,27 +2847,27 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" t="s">
-        <v>87</v>
+        <v>79</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>125</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2928,16 +2879,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" customWidth="1"/>
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.42578125" style="11" bestFit="1" customWidth="1"/>
@@ -2948,31 +2897,31 @@
         <v>3</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -2980,31 +2929,31 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>5</v>
+        <v>71</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -3012,95 +2961,95 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>130</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>103</v>
-      </c>
       <c r="J4" s="15" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" t="s">
-        <v>42</v>
+        <v>50</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="I5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>43</v>
+        <v>50</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/CUAHSI_documentation/Standard_Formatting_Template.xlsx
+++ b/CUAHSI_documentation/Standard_Formatting_Template.xlsx
@@ -2157,9 +2157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2399,9 +2397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>

--- a/CUAHSI_documentation/Standard_Formatting_Template.xlsx
+++ b/CUAHSI_documentation/Standard_Formatting_Template.xlsx
@@ -589,7 +589,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -759,6 +759,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1156,7 +1164,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1199,8 +1207,9 @@
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1289,8 +1298,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1324,6 +1335,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -2252,19 +2264,19 @@
       <c r="B3" t="s">
         <v>39</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="36" t="s">
         <v>42</v>
       </c>
       <c r="H3" s="12" t="s">
@@ -2273,10 +2285,10 @@
       <c r="I3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="36" t="s">
         <v>42</v>
       </c>
       <c r="L3" s="12" t="s">
@@ -2388,8 +2400,17 @@
       <c r="F9" s="12"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="F3" r:id="rId3"/>
+    <hyperlink ref="E3" r:id="rId4"/>
+    <hyperlink ref="J3" r:id="rId5"/>
+    <hyperlink ref="K3" r:id="rId6"/>
+    <hyperlink ref="G3" r:id="rId7"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -2566,10 +2587,10 @@
       <c r="E3" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="36" t="s">
         <v>42</v>
       </c>
       <c r="H3" s="12" t="s">
@@ -2626,6 +2647,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
